--- a/Wykresy.xlsx
+++ b/Wykresy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Projekty\GraphsZbp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms\gdrive\Uczelnia\ZBP\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="450" windowWidth="27630" windowHeight="13020" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="3510" yWindow="450" windowWidth="27630" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Wypełnienie 100%" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="20">
   <si>
     <t>Boost - adjacency_matrix</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>Original</t>
-  </si>
-  <si>
-    <t>Boost - adjacency_list 1</t>
-  </si>
-  <si>
-    <t>Boost - adjacency_list 2</t>
   </si>
   <si>
     <t>Boost - adjacency_list undirected</t>
@@ -738,58 +732,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>278</c:v>
+                  <c:v>4035</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6150</c:v>
+                  <c:v>9060</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12294</c:v>
+                  <c:v>16085</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18587</c:v>
+                  <c:v>25113</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26698</c:v>
+                  <c:v>36147</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36851</c:v>
+                  <c:v>49180</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>48901</c:v>
+                  <c:v>64225</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>60789</c:v>
+                  <c:v>81273</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>73793</c:v>
+                  <c:v>100319</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>109527</c:v>
+                  <c:v>144429</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>144675</c:v>
+                  <c:v>196555</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>124992</c:v>
+                  <c:v>256700</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>159558</c:v>
+                  <c:v>324854</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>196581</c:v>
+                  <c:v>401027</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>237031</c:v>
+                  <c:v>485212</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>282241</c:v>
+                  <c:v>577417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,58 +1283,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1391</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>1175</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>2052</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1077</c:v>
+                  <c:v>3187</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2303</c:v>
+                  <c:v>4567</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4208</c:v>
+                  <c:v>6193</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5516</c:v>
+                  <c:v>8069</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6350</c:v>
+                  <c:v>10199</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6559</c:v>
+                  <c:v>12579</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>14367</c:v>
+                  <c:v>18092</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>19731</c:v>
+                  <c:v>24604</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>23094</c:v>
+                  <c:v>32121</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>29425</c:v>
+                  <c:v>40636</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>36639</c:v>
+                  <c:v>50156</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43017</c:v>
+                  <c:v>60674</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>53490</c:v>
+                  <c:v>72204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,7 +1350,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Boost - adjacency_list undirected</c:v>
+                  <c:v>Boost - adjacency_list directed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1840,58 +1834,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6153</c:v>
+                  <c:v>10199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30394</c:v>
+                  <c:v>40632</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>73387</c:v>
+                  <c:v>97898</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>116745</c:v>
+                  <c:v>162205</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>213626</c:v>
+                  <c:v>275742</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>282240</c:v>
+                  <c:v>384376</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>374671</c:v>
+                  <c:v>509321</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>477466</c:v>
+                  <c:v>648147</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>695147</c:v>
+                  <c:v>949014</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>784678</c:v>
+                  <c:v>1065533</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1112054</c:v>
+                  <c:v>1496260</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1470212</c:v>
+                  <c:v>2007191</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1921204</c:v>
+                  <c:v>2591273</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2736870</c:v>
+                  <c:v>3764527</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2975607</c:v>
+                  <c:v>4277567</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3632883</c:v>
+                  <c:v>5062533</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>4153161</c:v>
+                  <c:v>5887817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1907,7 +1901,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Boost - adjacency_list directed</c:v>
+                  <c:v>Boost - adjacency_list undirected</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2391,58 +2385,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6156</c:v>
+                  <c:v>6783</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23004</c:v>
+                  <c:v>26521</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42981</c:v>
+                  <c:v>58896</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>93038</c:v>
+                  <c:v>102826</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>120611</c:v>
+                  <c:v>159412</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>168622</c:v>
+                  <c:v>228356</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>226365</c:v>
+                  <c:v>308986</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>293072</c:v>
+                  <c:v>400966</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>373951</c:v>
+                  <c:v>505327</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>455291</c:v>
+                  <c:v>621732</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>651094</c:v>
+                  <c:v>890372</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>893101</c:v>
+                  <c:v>1207488</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1145753</c:v>
+                  <c:v>1572225</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1461599</c:v>
+                  <c:v>1987281</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1780856</c:v>
+                  <c:v>2450522</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2209416</c:v>
+                  <c:v>2962612</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2594686</c:v>
+                  <c:v>3522384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2960,55 +2954,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7184</c:v>
+                  <c:v>12197</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36283</c:v>
+                  <c:v>48640</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84931</c:v>
+                  <c:v>116338</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>140378</c:v>
+                  <c:v>194249</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>233577</c:v>
+                  <c:v>327241</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>333760</c:v>
+                  <c:v>455966</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>444454</c:v>
+                  <c:v>607129</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>572006</c:v>
+                  <c:v>776388</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>784159</c:v>
+                  <c:v>1069535</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>932127</c:v>
+                  <c:v>1274565</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1308938</c:v>
+                  <c:v>1790648</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1764908</c:v>
+                  <c:v>2402759</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2080718</c:v>
+                  <c:v>3104252</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3151343</c:v>
+                  <c:v>4275445</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3738720</c:v>
+                  <c:v>5095731</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4323707</c:v>
+                  <c:v>5859880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3025,11 +3019,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1475047040"/>
-        <c:axId val="1475051392"/>
+        <c:axId val="59339168"/>
+        <c:axId val="59335904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1475047040"/>
+        <c:axId val="59339168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3140,7 +3134,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1475051392"/>
+        <c:crossAx val="59335904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3149,7 +3143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1475051392"/>
+        <c:axId val="59335904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3263,7 +3257,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1475047040"/>
+        <c:crossAx val="59339168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3438,7 +3432,7 @@
           <c:x val="8.3092475631358811E-2"/>
           <c:y val="7.6199280945043663E-2"/>
           <c:w val="0.88579616593862165"/>
-          <c:h val="0.83703507788052656"/>
+          <c:h val="0.81533882878460162"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3937,58 +3931,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>582</c:v>
+                  <c:v>4035</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6148</c:v>
+                  <c:v>9060</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12294</c:v>
+                  <c:v>16085</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18419</c:v>
+                  <c:v>25113</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24582</c:v>
+                  <c:v>36147</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36870</c:v>
+                  <c:v>49180</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>48341</c:v>
+                  <c:v>64225</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>60998</c:v>
+                  <c:v>81272</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>73735</c:v>
+                  <c:v>100319</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>104447</c:v>
+                  <c:v>144429</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>141483</c:v>
+                  <c:v>196555</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>187681</c:v>
+                  <c:v>256700</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>237311</c:v>
+                  <c:v>324853</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>234157</c:v>
+                  <c:v>401027</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>237631</c:v>
+                  <c:v>485212</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>282396</c:v>
+                  <c:v>577417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4488,58 +4482,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1359</c:v>
+                  <c:v>557</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>1175</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>2052</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11</c:v>
+                  <c:v>3187</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6158</c:v>
+                  <c:v>4567</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3934</c:v>
+                  <c:v>6193</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5119</c:v>
+                  <c:v>8069</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6511</c:v>
+                  <c:v>10199</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6753</c:v>
+                  <c:v>12579</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>12332</c:v>
+                  <c:v>18092</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18182</c:v>
+                  <c:v>24605</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>21458</c:v>
+                  <c:v>32120</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>29454</c:v>
+                  <c:v>40637</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>36859</c:v>
+                  <c:v>50155</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43021</c:v>
+                  <c:v>60674</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>49874</c:v>
+                  <c:v>72204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4555,7 +4549,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Boost - adjacency_list undirected</c:v>
+                  <c:v>Boost - adjacency_list directed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5039,58 +5033,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6137</c:v>
+                  <c:v>5783</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18104</c:v>
+                  <c:v>21606</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36811</c:v>
+                  <c:v>51451</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>61444</c:v>
+                  <c:v>83992</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>104391</c:v>
+                  <c:v>140441</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>147110</c:v>
+                  <c:v>195767</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>183132</c:v>
+                  <c:v>260922</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>240766</c:v>
+                  <c:v>327422</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>347844</c:v>
+                  <c:v>472492</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>399290</c:v>
+                  <c:v>545805</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>559026</c:v>
+                  <c:v>762610</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>748337</c:v>
+                  <c:v>1018536</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>941723</c:v>
+                  <c:v>1297025</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1354863</c:v>
+                  <c:v>1843647</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1566280</c:v>
+                  <c:v>2130167</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1861714</c:v>
+                  <c:v>2541509</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2192603</c:v>
+                  <c:v>2992245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5106,7 +5100,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Boost - adjacency_list directed</c:v>
+                  <c:v>Boost - adjacency_list undirected</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5590,58 +5584,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1116</c:v>
+                  <c:v>3465</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11964</c:v>
+                  <c:v>13606</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24428</c:v>
+                  <c:v>30681</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36873</c:v>
+                  <c:v>53039</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>61435</c:v>
+                  <c:v>82275</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>86043</c:v>
+                  <c:v>117678</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>116742</c:v>
+                  <c:v>159009</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>148829</c:v>
+                  <c:v>205516</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>189208</c:v>
+                  <c:v>259144</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>233392</c:v>
+                  <c:v>319133</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>336262</c:v>
+                  <c:v>456909</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>452424</c:v>
+                  <c:v>617971</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>588442</c:v>
+                  <c:v>802427</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>743356</c:v>
+                  <c:v>1010541</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>915459</c:v>
+                  <c:v>1243474</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1103947</c:v>
+                  <c:v>1500134</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1310048</c:v>
+                  <c:v>1781186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6141,58 +6135,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6151</c:v>
+                  <c:v>6779</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19225</c:v>
+                  <c:v>25399</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43018</c:v>
+                  <c:v>60475</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>72950</c:v>
+                  <c:v>99433</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>120993</c:v>
+                  <c:v>165220</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>172007</c:v>
+                  <c:v>231848</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>226601</c:v>
+                  <c:v>309869</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>289526</c:v>
+                  <c:v>391238</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>397581</c:v>
+                  <c:v>537893</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>470870</c:v>
+                  <c:v>644104</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>665844</c:v>
+                  <c:v>906335</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>891747</c:v>
+                  <c:v>1214969</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1140441</c:v>
+                  <c:v>1553602</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1543543</c:v>
+                  <c:v>2109577</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1841284</c:v>
+                  <c:v>2524455</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2212657</c:v>
+                  <c:v>3021094</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2602428</c:v>
+                  <c:v>3565550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6209,11 +6203,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1475051936"/>
-        <c:axId val="1475047584"/>
+        <c:axId val="59344064"/>
+        <c:axId val="59345152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1475051936"/>
+        <c:axId val="59344064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6324,7 +6318,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1475047584"/>
+        <c:crossAx val="59345152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6333,7 +6327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1475047584"/>
+        <c:axId val="59345152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6447,7 +6441,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1475051936"/>
+        <c:crossAx val="59344064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6466,9 +6460,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.7729303271720004E-3"/>
-          <c:y val="0.95749693930687862"/>
+          <c:y val="0.933828303929506"/>
           <c:w val="0.77270118620331474"/>
-          <c:h val="4.2503060693121389E-2"/>
+          <c:h val="6.6171696070494002E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7121,58 +7115,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2751</c:v>
+                  <c:v>4038</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6068</c:v>
+                  <c:v>9064</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12294</c:v>
+                  <c:v>16089</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18438</c:v>
+                  <c:v>25116</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24581</c:v>
+                  <c:v>36151</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>36863</c:v>
+                  <c:v>49185</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>48438</c:v>
+                  <c:v>64229</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>60801</c:v>
+                  <c:v>81276</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>73731</c:v>
+                  <c:v>100323</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>104441</c:v>
+                  <c:v>144433</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>141620</c:v>
+                  <c:v>196559</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>188749</c:v>
+                  <c:v>256704</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>239587</c:v>
+                  <c:v>324858</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>292655</c:v>
+                  <c:v>401031</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>356030</c:v>
+                  <c:v>485216</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>423917</c:v>
+                  <c:v>577421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7672,58 +7666,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1135</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>1172</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>287</c:v>
+                  <c:v>3182</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6159</c:v>
+                  <c:v>4562</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3839</c:v>
+                  <c:v>6189</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5215</c:v>
+                  <c:v>8065</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6687</c:v>
+                  <c:v>10195</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6495</c:v>
+                  <c:v>12574</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>12318</c:v>
+                  <c:v>18088</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18239</c:v>
+                  <c:v>24600</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>20735</c:v>
+                  <c:v>32116</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>29373</c:v>
+                  <c:v>40632</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>36878</c:v>
+                  <c:v>50151</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43021</c:v>
+                  <c:v>60670</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>49188</c:v>
+                  <c:v>72200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7739,7 +7733,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Boost - adjacency_list undirected</c:v>
+                  <c:v>Boost - adjacency_list directed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8223,58 +8217,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4134</c:v>
+                  <c:v>1355</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>2028</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4</c:v>
+                  <c:v>2695</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13</c:v>
+                  <c:v>3371</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6129</c:v>
+                  <c:v>4042</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70</c:v>
+                  <c:v>4718</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1110</c:v>
+                  <c:v>5390</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>689</c:v>
+                  <c:v>6094</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6145</c:v>
+                  <c:v>6770</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6162</c:v>
+                  <c:v>8114</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8108</c:v>
+                  <c:v>9461</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7392</c:v>
+                  <c:v>10805</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5827</c:v>
+                  <c:v>12157</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6802</c:v>
+                  <c:v>13504</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>11188</c:v>
+                  <c:v>14848</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>12114</c:v>
+                  <c:v>16195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8290,7 +8284,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Boost - adjacency_list directed</c:v>
+                  <c:v>Boost - adjacency_list undirected</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8774,58 +8768,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>422</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1817</c:v>
+                  <c:v>844</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>1257</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6</c:v>
+                  <c:v>1671</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7</c:v>
+                  <c:v>2085</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3912</c:v>
+                  <c:v>2506</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6</c:v>
+                  <c:v>2924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>904</c:v>
+                  <c:v>3338</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>531</c:v>
+                  <c:v>3784</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>222</c:v>
+                  <c:v>4207</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6156</c:v>
+                  <c:v>5038</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6020</c:v>
+                  <c:v>5869</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1571</c:v>
+                  <c:v>6701</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4568</c:v>
+                  <c:v>7540</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6129</c:v>
+                  <c:v>8368</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>6146</c:v>
+                  <c:v>9208</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>5298</c:v>
+                  <c:v>10039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9325,58 +9319,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="121"/>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>782</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5094</c:v>
+                  <c:v>1573</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>2355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4</c:v>
+                  <c:v>3141</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>198</c:v>
+                  <c:v>3928</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6148</c:v>
+                  <c:v>4710</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1555</c:v>
+                  <c:v>5505</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>731</c:v>
+                  <c:v>6283</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3128</c:v>
+                  <c:v>7102</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6158</c:v>
+                  <c:v>7893</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6177</c:v>
+                  <c:v>9461</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>11936</c:v>
+                  <c:v>11030</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8659</c:v>
+                  <c:v>12603</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6904</c:v>
+                  <c:v>14176</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>11617</c:v>
+                  <c:v>15749</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>12287</c:v>
+                  <c:v>17314</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>13296</c:v>
+                  <c:v>18886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9393,11 +9387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1475041600"/>
-        <c:axId val="1475048128"/>
+        <c:axId val="59339712"/>
+        <c:axId val="59338080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1475041600"/>
+        <c:axId val="59339712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9508,7 +9502,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1475048128"/>
+        <c:crossAx val="59338080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9517,7 +9511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1475048128"/>
+        <c:axId val="59338080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9631,7 +9625,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1475041600"/>
+        <c:crossAx val="59339712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9763,7 +9757,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10217,11 +10210,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="948780912"/>
-        <c:axId val="1480685632"/>
+        <c:axId val="59340800"/>
+        <c:axId val="59341888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="948780912"/>
+        <c:axId val="59340800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10267,7 +10260,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10334,7 +10326,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1480685632"/>
+        <c:crossAx val="59341888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10342,7 +10334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1480685632"/>
+        <c:axId val="59341888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10388,7 +10380,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10455,7 +10446,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948780912"/>
+        <c:crossAx val="59340800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10469,7 +10460,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10578,7 +10568,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11032,11 +11021,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1684333360"/>
-        <c:axId val="1684350768"/>
+        <c:axId val="59343520"/>
+        <c:axId val="251936208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1684333360"/>
+        <c:axId val="59343520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11082,7 +11071,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11149,7 +11137,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1684350768"/>
+        <c:crossAx val="251936208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11157,7 +11145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1684350768"/>
+        <c:axId val="251936208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11203,7 +11191,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11270,7 +11257,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1684333360"/>
+        <c:crossAx val="59343520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11284,7 +11271,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11421,16 +11407,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -11442,7 +11425,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12030,11 +12012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1684340432"/>
-        <c:axId val="1684343152"/>
+        <c:axId val="251937296"/>
+        <c:axId val="251943824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1684340432"/>
+        <c:axId val="251937296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12080,7 +12062,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12147,7 +12128,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1684343152"/>
+        <c:crossAx val="251943824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12155,7 +12136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1684343152"/>
+        <c:axId val="251943824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12201,7 +12182,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12268,7 +12248,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1684340432"/>
+        <c:crossAx val="251937296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12282,7 +12262,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12437,7 +12416,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13025,11 +13003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1684356752"/>
-        <c:axId val="1684355120"/>
+        <c:axId val="251944912"/>
+        <c:axId val="251940560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1684356752"/>
+        <c:axId val="251944912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13075,7 +13053,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13142,7 +13119,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1684355120"/>
+        <c:crossAx val="251940560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13150,7 +13127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1684355120"/>
+        <c:axId val="251940560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13196,7 +13173,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13263,7 +13239,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1684356752"/>
+        <c:crossAx val="251944912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13277,7 +13253,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13432,7 +13407,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14020,11 +13994,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1684351856"/>
-        <c:axId val="1684345328"/>
+        <c:axId val="251944368"/>
+        <c:axId val="251938384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1684351856"/>
+        <c:axId val="251944368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14070,7 +14044,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14137,7 +14110,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1684345328"/>
+        <c:crossAx val="251938384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14145,7 +14118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1684345328"/>
+        <c:axId val="251938384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14191,7 +14164,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14258,7 +14230,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1684351856"/>
+        <c:crossAx val="251944368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14272,7 +14244,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14427,7 +14398,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15015,11 +14985,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1672418288"/>
-        <c:axId val="1672417200"/>
+        <c:axId val="251939472"/>
+        <c:axId val="251932400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1672418288"/>
+        <c:axId val="251939472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15065,7 +15035,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15132,7 +15101,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1672417200"/>
+        <c:crossAx val="251932400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15140,7 +15109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1672417200"/>
+        <c:axId val="251932400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15186,7 +15155,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15253,7 +15221,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1672418288"/>
+        <c:crossAx val="251939472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15267,7 +15235,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20930,15 +20897,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA122"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -20949,1168 +20916,823 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>471</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="F3">
-        <v>9</v>
-      </c>
-      <c r="X3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
-      <c r="X4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>300</v>
       </c>
-      <c r="X5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>400</v>
       </c>
-      <c r="X6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1020</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="D7">
-        <v>6153</v>
+        <v>10199</v>
       </c>
       <c r="E7">
-        <v>6156</v>
+        <v>6783</v>
       </c>
       <c r="F7">
-        <v>7184</v>
-      </c>
-      <c r="X7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>12197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>600</v>
       </c>
-      <c r="X8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>700</v>
       </c>
-      <c r="X9">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>800</v>
       </c>
-      <c r="X10">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>900</v>
       </c>
-      <c r="X11">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>278</v>
+        <v>4035</v>
       </c>
       <c r="C12">
-        <v>1391</v>
+        <v>557</v>
       </c>
       <c r="D12">
-        <v>30394</v>
+        <v>40632</v>
       </c>
       <c r="E12">
-        <v>23004</v>
+        <v>26521</v>
       </c>
       <c r="F12">
-        <v>36283</v>
-      </c>
-      <c r="X12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <v>48640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1100</v>
       </c>
-      <c r="X13">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1200</v>
       </c>
-      <c r="X14">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1300</v>
       </c>
-      <c r="X15">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1400</v>
       </c>
-      <c r="X16">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>6150</v>
+        <v>9060</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>1175</v>
       </c>
       <c r="D17">
-        <v>73387</v>
+        <v>97898</v>
       </c>
       <c r="E17">
-        <v>42981</v>
+        <v>58896</v>
       </c>
       <c r="F17">
-        <v>84931</v>
-      </c>
-      <c r="X17">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+        <v>116338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1600</v>
       </c>
-      <c r="X18">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1700</v>
       </c>
-      <c r="X19">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1800</v>
       </c>
-      <c r="X20">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1900</v>
       </c>
-      <c r="X21">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>12294</v>
+        <v>16085</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>2052</v>
       </c>
       <c r="D22">
-        <v>116745</v>
+        <v>162205</v>
       </c>
       <c r="E22">
-        <v>93038</v>
+        <v>102826</v>
       </c>
       <c r="F22">
-        <v>140378</v>
-      </c>
-      <c r="X22">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+        <v>194249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2100</v>
       </c>
-      <c r="X23">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2200</v>
       </c>
-      <c r="X24">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2300</v>
       </c>
-      <c r="X25">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2400</v>
       </c>
-      <c r="X26">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2500</v>
       </c>
       <c r="B27">
-        <v>18587</v>
+        <v>25113</v>
       </c>
       <c r="C27">
-        <v>1077</v>
+        <v>3187</v>
       </c>
       <c r="D27">
-        <v>213626</v>
+        <v>275742</v>
       </c>
       <c r="E27">
-        <v>120611</v>
+        <v>159412</v>
       </c>
       <c r="F27">
-        <v>233577</v>
-      </c>
-      <c r="X27">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+        <v>327241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2600</v>
       </c>
-      <c r="X28">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2700</v>
       </c>
-      <c r="X29">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2800</v>
       </c>
-      <c r="X30">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2900</v>
       </c>
-      <c r="X31">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3000</v>
       </c>
       <c r="B32">
-        <v>26698</v>
+        <v>36147</v>
       </c>
       <c r="C32">
-        <v>2303</v>
+        <v>4567</v>
       </c>
       <c r="D32">
-        <v>282240</v>
+        <v>384376</v>
       </c>
       <c r="E32">
-        <v>168622</v>
+        <v>228356</v>
       </c>
       <c r="F32">
-        <v>333760</v>
-      </c>
-      <c r="X32">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+        <v>455966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3100</v>
       </c>
-      <c r="X33">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3200</v>
       </c>
-      <c r="X34">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3300</v>
       </c>
-      <c r="X35">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3400</v>
       </c>
-      <c r="X36">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3500</v>
       </c>
       <c r="B37">
-        <v>36851</v>
+        <v>49180</v>
       </c>
       <c r="C37">
-        <v>4208</v>
+        <v>6193</v>
       </c>
       <c r="D37">
-        <v>374671</v>
+        <v>509321</v>
       </c>
       <c r="E37">
-        <v>226365</v>
+        <v>308986</v>
       </c>
       <c r="F37">
-        <v>444454</v>
-      </c>
-      <c r="X37">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+        <v>607129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3600</v>
       </c>
-      <c r="X38">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3700</v>
       </c>
-      <c r="X39">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3800</v>
       </c>
-      <c r="X40">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3900</v>
       </c>
-      <c r="X41">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4000</v>
       </c>
       <c r="B42">
-        <v>48901</v>
+        <v>64225</v>
       </c>
       <c r="C42">
-        <v>5516</v>
+        <v>8069</v>
       </c>
       <c r="D42">
-        <v>477466</v>
+        <v>648147</v>
       </c>
       <c r="E42">
-        <v>293072</v>
+        <v>400966</v>
       </c>
       <c r="F42">
-        <v>572006</v>
-      </c>
-      <c r="X42">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+        <v>776388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4100</v>
       </c>
-      <c r="X43">
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4200</v>
       </c>
-      <c r="X44">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4300</v>
       </c>
-      <c r="X45">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4400</v>
       </c>
-      <c r="X46">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4500</v>
       </c>
       <c r="B47">
-        <v>60789</v>
+        <v>81273</v>
       </c>
       <c r="C47">
-        <v>6350</v>
+        <v>10199</v>
       </c>
       <c r="D47">
-        <v>695147</v>
+        <v>949014</v>
       </c>
       <c r="E47">
-        <v>373951</v>
+        <v>505327</v>
       </c>
       <c r="F47">
-        <v>784159</v>
-      </c>
-      <c r="X47">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1069535</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4600</v>
       </c>
-      <c r="X48">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4700</v>
       </c>
-      <c r="X49">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4800</v>
       </c>
-      <c r="X50">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4900</v>
       </c>
-      <c r="X51">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5000</v>
       </c>
       <c r="B52">
-        <v>73793</v>
+        <v>100319</v>
       </c>
       <c r="C52">
-        <v>6559</v>
+        <v>12579</v>
       </c>
       <c r="D52">
-        <v>784678</v>
+        <v>1065533</v>
       </c>
       <c r="E52">
-        <v>455291</v>
+        <v>621732</v>
       </c>
       <c r="F52">
-        <v>932127</v>
-      </c>
-      <c r="X52">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1274565</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5100</v>
       </c>
-      <c r="X53">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5200</v>
       </c>
-      <c r="X54">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5300</v>
       </c>
-      <c r="X55">
-        <v>5300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5400</v>
       </c>
-      <c r="X56">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5500</v>
       </c>
-      <c r="X57">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5600</v>
       </c>
-      <c r="X58">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5700</v>
       </c>
-      <c r="X59">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5800</v>
       </c>
-      <c r="X60">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5900</v>
       </c>
-      <c r="X61">
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6000</v>
       </c>
       <c r="B62">
-        <v>109527</v>
+        <v>144429</v>
       </c>
       <c r="C62">
-        <v>14367</v>
+        <v>18092</v>
       </c>
       <c r="D62">
-        <v>1112054</v>
+        <v>1496260</v>
       </c>
       <c r="E62">
-        <v>651094</v>
+        <v>890372</v>
       </c>
       <c r="F62">
-        <v>1308938</v>
-      </c>
-      <c r="X62">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1790648</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6100</v>
       </c>
-      <c r="X63">
-        <v>6100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6200</v>
       </c>
-      <c r="X64">
-        <v>6200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6300</v>
       </c>
-      <c r="X65">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6400</v>
       </c>
-      <c r="X66">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6500</v>
       </c>
-      <c r="X67">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6600</v>
       </c>
-      <c r="X68">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6700</v>
       </c>
-      <c r="X69">
-        <v>6700</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6800</v>
       </c>
-      <c r="X70">
-        <v>6800</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6900</v>
       </c>
-      <c r="X71">
-        <v>6900</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7000</v>
       </c>
       <c r="B72">
-        <v>144675</v>
+        <v>196555</v>
       </c>
       <c r="C72">
-        <v>19731</v>
+        <v>24604</v>
       </c>
       <c r="D72">
-        <v>1470212</v>
+        <v>2007191</v>
       </c>
       <c r="E72">
-        <v>893101</v>
+        <v>1207488</v>
       </c>
       <c r="F72">
-        <v>1764908</v>
-      </c>
-      <c r="X72">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2402759</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7100</v>
       </c>
-      <c r="X73">
-        <v>7100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7200</v>
       </c>
-      <c r="X74">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7300</v>
       </c>
-      <c r="X75">
-        <v>7300</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7400</v>
       </c>
-      <c r="X76">
-        <v>7400</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7500</v>
       </c>
-      <c r="X77">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7600</v>
       </c>
-      <c r="X78">
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7700</v>
       </c>
-      <c r="X79">
-        <v>7700</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7800</v>
       </c>
-      <c r="X80">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7900</v>
       </c>
-      <c r="X81">
-        <v>7900</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8000</v>
       </c>
       <c r="B82">
-        <v>124992</v>
+        <v>256700</v>
       </c>
       <c r="C82">
-        <v>23094</v>
+        <v>32121</v>
       </c>
       <c r="D82">
-        <v>1921204</v>
+        <v>2591273</v>
       </c>
       <c r="E82">
-        <v>1145753</v>
+        <v>1572225</v>
       </c>
       <c r="F82">
-        <v>2080718</v>
-      </c>
-      <c r="X82">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+        <v>3104252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8100</v>
       </c>
-      <c r="X83">
-        <v>8100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8200</v>
       </c>
-      <c r="X84">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8300</v>
       </c>
-      <c r="X85">
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8400</v>
       </c>
-      <c r="X86">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8500</v>
       </c>
-      <c r="X87">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8600</v>
       </c>
-      <c r="X88">
-        <v>8600</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8700</v>
       </c>
-      <c r="X89">
-        <v>8700</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8800</v>
       </c>
-      <c r="X90">
-        <v>8800</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8900</v>
       </c>
-      <c r="X91">
-        <v>8900</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9000</v>
       </c>
       <c r="B92">
-        <v>159558</v>
+        <v>324854</v>
       </c>
       <c r="C92">
-        <v>29425</v>
+        <v>40636</v>
       </c>
       <c r="D92">
-        <v>2736870</v>
+        <v>3764527</v>
       </c>
       <c r="E92">
-        <v>1461599</v>
+        <v>1987281</v>
       </c>
       <c r="F92">
-        <v>3151343</v>
-      </c>
-      <c r="X92">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4275445</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9100</v>
       </c>
-      <c r="X93">
-        <v>9100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9200</v>
       </c>
-      <c r="X94">
-        <v>9200</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9300</v>
       </c>
-      <c r="X95">
-        <v>9300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9400</v>
       </c>
-      <c r="X96">
-        <v>9400</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9500</v>
       </c>
-      <c r="X97">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9600</v>
       </c>
-      <c r="X98">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9700</v>
       </c>
-      <c r="X99">
-        <v>9700</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9800</v>
       </c>
-      <c r="X100">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>9900</v>
       </c>
-      <c r="X101">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>10000</v>
       </c>
       <c r="B102">
-        <v>196581</v>
+        <v>401027</v>
       </c>
       <c r="C102">
-        <v>36639</v>
+        <v>50156</v>
       </c>
       <c r="D102">
-        <v>2975607</v>
+        <v>4277567</v>
       </c>
       <c r="E102">
-        <v>1780856</v>
+        <v>2450522</v>
       </c>
       <c r="F102">
-        <v>3738720</v>
-      </c>
-      <c r="X102">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+        <v>5095731</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10100</v>
       </c>
-      <c r="X103">
-        <v>10100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>10200</v>
       </c>
-      <c r="X104">
-        <v>10200</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>10300</v>
       </c>
-      <c r="X105">
-        <v>10300</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>10400</v>
       </c>
-      <c r="X106">
-        <v>10400</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>10500</v>
       </c>
-      <c r="X107">
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10600</v>
       </c>
-      <c r="X108">
-        <v>10600</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10700</v>
       </c>
-      <c r="X109">
-        <v>10700</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>10800</v>
       </c>
-      <c r="X110">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10900</v>
       </c>
-      <c r="X111">
-        <v>10900</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>11000</v>
       </c>
       <c r="B112">
-        <v>237031</v>
+        <v>485212</v>
       </c>
       <c r="C112">
-        <v>43017</v>
+        <v>60674</v>
       </c>
       <c r="D112">
-        <v>3632883</v>
+        <v>5062533</v>
       </c>
       <c r="E112">
-        <v>2209416</v>
+        <v>2962612</v>
       </c>
       <c r="F112">
-        <v>4323707</v>
-      </c>
-      <c r="X112">
-        <v>11000</v>
+        <v>5859880</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -22163,16 +21785,16 @@
         <v>12000</v>
       </c>
       <c r="B122">
-        <v>282241</v>
+        <v>577417</v>
       </c>
       <c r="C122">
-        <v>53490</v>
+        <v>72204</v>
       </c>
       <c r="D122">
-        <v>4153161</v>
+        <v>5887817</v>
       </c>
       <c r="E122">
-        <v>2594686</v>
+        <v>3522384</v>
       </c>
     </row>
   </sheetData>
@@ -22201,7 +21823,7 @@
   <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22217,13 +21839,13 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -22236,19 +21858,19 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>250</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -22271,19 +21893,19 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1020</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="D7">
-        <v>6137</v>
+        <v>5783</v>
       </c>
       <c r="E7">
-        <v>1116</v>
+        <v>3465</v>
       </c>
       <c r="F7">
-        <v>6151</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -22311,19 +21933,19 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>582</v>
+        <v>4035</v>
       </c>
       <c r="C12">
-        <v>1359</v>
+        <v>557</v>
       </c>
       <c r="D12">
-        <v>18104</v>
+        <v>21606</v>
       </c>
       <c r="E12">
-        <v>11964</v>
+        <v>13606</v>
       </c>
       <c r="F12">
-        <v>19225</v>
+        <v>25399</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -22351,19 +21973,19 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>6148</v>
+        <v>9060</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>1175</v>
       </c>
       <c r="D17">
-        <v>36811</v>
+        <v>51451</v>
       </c>
       <c r="E17">
-        <v>24428</v>
+        <v>30681</v>
       </c>
       <c r="F17">
-        <v>43018</v>
+        <v>60475</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -22391,19 +22013,19 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>12294</v>
+        <v>16085</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>2052</v>
       </c>
       <c r="D22">
-        <v>61444</v>
+        <v>83992</v>
       </c>
       <c r="E22">
-        <v>36873</v>
+        <v>53039</v>
       </c>
       <c r="F22">
-        <v>72950</v>
+        <v>99433</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -22431,19 +22053,19 @@
         <v>2500</v>
       </c>
       <c r="B27">
-        <v>18419</v>
+        <v>25113</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>3187</v>
       </c>
       <c r="D27">
-        <v>104391</v>
+        <v>140441</v>
       </c>
       <c r="E27">
-        <v>61435</v>
+        <v>82275</v>
       </c>
       <c r="F27">
-        <v>120993</v>
+        <v>165220</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -22471,19 +22093,19 @@
         <v>3000</v>
       </c>
       <c r="B32">
-        <v>24582</v>
+        <v>36147</v>
       </c>
       <c r="C32">
-        <v>6158</v>
+        <v>4567</v>
       </c>
       <c r="D32">
-        <v>147110</v>
+        <v>195767</v>
       </c>
       <c r="E32">
-        <v>86043</v>
+        <v>117678</v>
       </c>
       <c r="F32">
-        <v>172007</v>
+        <v>231848</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -22511,19 +22133,19 @@
         <v>3500</v>
       </c>
       <c r="B37">
-        <v>36870</v>
+        <v>49180</v>
       </c>
       <c r="C37">
-        <v>3934</v>
+        <v>6193</v>
       </c>
       <c r="D37">
-        <v>183132</v>
+        <v>260922</v>
       </c>
       <c r="E37">
-        <v>116742</v>
+        <v>159009</v>
       </c>
       <c r="F37">
-        <v>226601</v>
+        <v>309869</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -22551,19 +22173,19 @@
         <v>4000</v>
       </c>
       <c r="B42">
-        <v>48341</v>
+        <v>64225</v>
       </c>
       <c r="C42">
-        <v>5119</v>
+        <v>8069</v>
       </c>
       <c r="D42">
-        <v>240766</v>
+        <v>327422</v>
       </c>
       <c r="E42">
-        <v>148829</v>
+        <v>205516</v>
       </c>
       <c r="F42">
-        <v>289526</v>
+        <v>391238</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -22591,19 +22213,19 @@
         <v>4500</v>
       </c>
       <c r="B47">
-        <v>60998</v>
+        <v>81272</v>
       </c>
       <c r="C47">
-        <v>6511</v>
+        <v>10199</v>
       </c>
       <c r="D47">
-        <v>347844</v>
+        <v>472492</v>
       </c>
       <c r="E47">
-        <v>189208</v>
+        <v>259144</v>
       </c>
       <c r="F47">
-        <v>397581</v>
+        <v>537893</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -22631,19 +22253,19 @@
         <v>5000</v>
       </c>
       <c r="B52">
-        <v>73735</v>
+        <v>100319</v>
       </c>
       <c r="C52">
-        <v>6753</v>
+        <v>12579</v>
       </c>
       <c r="D52">
-        <v>399290</v>
+        <v>545805</v>
       </c>
       <c r="E52">
-        <v>233392</v>
+        <v>319133</v>
       </c>
       <c r="F52">
-        <v>470870</v>
+        <v>644104</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -22696,19 +22318,19 @@
         <v>6000</v>
       </c>
       <c r="B62">
-        <v>104447</v>
+        <v>144429</v>
       </c>
       <c r="C62">
-        <v>12332</v>
+        <v>18092</v>
       </c>
       <c r="D62">
-        <v>559026</v>
+        <v>762610</v>
       </c>
       <c r="E62">
-        <v>336262</v>
+        <v>456909</v>
       </c>
       <c r="F62">
-        <v>665844</v>
+        <v>906335</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -22761,19 +22383,19 @@
         <v>7000</v>
       </c>
       <c r="B72">
-        <v>141483</v>
+        <v>196555</v>
       </c>
       <c r="C72">
-        <v>18182</v>
+        <v>24605</v>
       </c>
       <c r="D72">
-        <v>748337</v>
+        <v>1018536</v>
       </c>
       <c r="E72">
-        <v>452424</v>
+        <v>617971</v>
       </c>
       <c r="F72">
-        <v>891747</v>
+        <v>1214969</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -22826,19 +22448,19 @@
         <v>8000</v>
       </c>
       <c r="B82">
-        <v>187681</v>
+        <v>256700</v>
       </c>
       <c r="C82">
-        <v>21458</v>
+        <v>32120</v>
       </c>
       <c r="D82">
-        <v>941723</v>
+        <v>1297025</v>
       </c>
       <c r="E82">
-        <v>588442</v>
+        <v>802427</v>
       </c>
       <c r="F82">
-        <v>1140441</v>
+        <v>1553602</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -22891,19 +22513,19 @@
         <v>9000</v>
       </c>
       <c r="B92">
-        <v>237311</v>
+        <v>324853</v>
       </c>
       <c r="C92">
-        <v>29454</v>
+        <v>40637</v>
       </c>
       <c r="D92">
-        <v>1354863</v>
+        <v>1843647</v>
       </c>
       <c r="E92">
-        <v>743356</v>
+        <v>1010541</v>
       </c>
       <c r="F92">
-        <v>1543543</v>
+        <v>2109577</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -22956,19 +22578,19 @@
         <v>10000</v>
       </c>
       <c r="B102">
-        <v>234157</v>
+        <v>401027</v>
       </c>
       <c r="C102">
-        <v>36859</v>
+        <v>50155</v>
       </c>
       <c r="D102">
-        <v>1566280</v>
+        <v>2130167</v>
       </c>
       <c r="E102">
-        <v>915459</v>
+        <v>1243474</v>
       </c>
       <c r="F102">
-        <v>1841284</v>
+        <v>2524455</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -23021,19 +22643,19 @@
         <v>11000</v>
       </c>
       <c r="B112">
-        <v>237631</v>
+        <v>485212</v>
       </c>
       <c r="C112">
-        <v>43021</v>
+        <v>60674</v>
       </c>
       <c r="D112">
-        <v>1861714</v>
+        <v>2541509</v>
       </c>
       <c r="E112">
-        <v>1103947</v>
+        <v>1500134</v>
       </c>
       <c r="F112">
-        <v>2212657</v>
+        <v>3021094</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -23086,19 +22708,19 @@
         <v>12000</v>
       </c>
       <c r="B122">
-        <v>282396</v>
+        <v>577417</v>
       </c>
       <c r="C122">
-        <v>49874</v>
+        <v>72204</v>
       </c>
       <c r="D122">
-        <v>2192603</v>
+        <v>2992245</v>
       </c>
       <c r="E122">
-        <v>1310048</v>
+        <v>1781186</v>
       </c>
       <c r="F122">
-        <v>2602428</v>
+        <v>3565550</v>
       </c>
     </row>
   </sheetData>
@@ -23109,10 +22731,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:AB122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23121,7 +22743,7 @@
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -23132,888 +22754,1323 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="W3">
+        <v>100</v>
+      </c>
+      <c r="X3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1024</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>675</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>422</v>
       </c>
       <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+      <c r="W7">
+        <v>500</v>
+      </c>
+      <c r="X7">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>800</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>900</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>2751</v>
+        <v>4038</v>
       </c>
       <c r="C12">
-        <v>1135</v>
+        <v>553</v>
       </c>
       <c r="D12">
-        <v>4134</v>
+        <v>1355</v>
       </c>
       <c r="E12">
-        <v>1817</v>
+        <v>844</v>
       </c>
       <c r="F12">
-        <v>5094</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1573</v>
+      </c>
+      <c r="W12">
+        <v>1000</v>
+      </c>
+      <c r="X12">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1100</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1200</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W14">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1300</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W15">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1400</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>6068</v>
+        <v>9064</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>1172</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>2028</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>1257</v>
       </c>
       <c r="F17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2355</v>
+      </c>
+      <c r="W17">
+        <v>1500</v>
+      </c>
+      <c r="X17">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1600</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1700</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1800</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1900</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>12294</v>
+        <v>16089</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>2048</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>2695</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>1671</v>
       </c>
       <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3141</v>
+      </c>
+      <c r="W22">
+        <v>2000</v>
+      </c>
+      <c r="X22">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2100</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2200</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2300</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2400</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W26">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2500</v>
       </c>
       <c r="B27">
-        <v>18438</v>
+        <v>25116</v>
       </c>
       <c r="C27">
-        <v>287</v>
+        <v>3182</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>3371</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>2085</v>
       </c>
       <c r="F27">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3928</v>
+      </c>
+      <c r="W27">
+        <v>2500</v>
+      </c>
+      <c r="X27">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2600</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2700</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2800</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2900</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3000</v>
       </c>
       <c r="B32">
-        <v>24581</v>
+        <v>36151</v>
       </c>
       <c r="C32">
-        <v>6159</v>
+        <v>4562</v>
       </c>
       <c r="D32">
-        <v>6129</v>
+        <v>4042</v>
       </c>
       <c r="E32">
-        <v>3912</v>
+        <v>2506</v>
       </c>
       <c r="F32">
-        <v>6148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4710</v>
+      </c>
+      <c r="W32">
+        <v>3000</v>
+      </c>
+      <c r="X32">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3100</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3200</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3300</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3400</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3500</v>
       </c>
       <c r="B37">
-        <v>36863</v>
+        <v>49185</v>
       </c>
       <c r="C37">
-        <v>3839</v>
+        <v>6189</v>
       </c>
       <c r="D37">
-        <v>70</v>
+        <v>4718</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>2924</v>
       </c>
       <c r="F37">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5505</v>
+      </c>
+      <c r="W37">
+        <v>3500</v>
+      </c>
+      <c r="X37">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3600</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3700</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3800</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3900</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4000</v>
       </c>
       <c r="B42">
-        <v>48438</v>
+        <v>64229</v>
       </c>
       <c r="C42">
-        <v>5215</v>
+        <v>8065</v>
       </c>
       <c r="D42">
-        <v>1110</v>
+        <v>5390</v>
       </c>
       <c r="E42">
-        <v>904</v>
+        <v>3338</v>
       </c>
       <c r="F42">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6283</v>
+      </c>
+      <c r="W42">
+        <v>4000</v>
+      </c>
+      <c r="X42">
+        <v>6283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4100</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4200</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4300</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4400</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4500</v>
       </c>
       <c r="B47">
-        <v>60801</v>
+        <v>81276</v>
       </c>
       <c r="C47">
-        <v>6687</v>
+        <v>10195</v>
       </c>
       <c r="D47">
-        <v>689</v>
+        <v>6094</v>
       </c>
       <c r="E47">
-        <v>531</v>
+        <v>3784</v>
       </c>
       <c r="F47">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7102</v>
+      </c>
+      <c r="W47">
+        <v>4500</v>
+      </c>
+      <c r="X47">
+        <v>7102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4600</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W48">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4700</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W49">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4800</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W50">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4900</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W51">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5000</v>
       </c>
       <c r="B52">
-        <v>73731</v>
+        <v>100323</v>
       </c>
       <c r="C52">
-        <v>6495</v>
+        <v>12574</v>
       </c>
       <c r="D52">
-        <v>6145</v>
+        <v>6770</v>
       </c>
       <c r="E52">
-        <v>222</v>
+        <v>4207</v>
       </c>
       <c r="F52">
-        <v>6158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7893</v>
+      </c>
+      <c r="W52">
+        <v>5000</v>
+      </c>
+      <c r="X52">
+        <v>7893</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5100</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5200</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5300</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5400</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5500</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W57">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5600</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W58">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5700</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W59">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5800</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W60">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5900</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W61">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6000</v>
       </c>
       <c r="B62">
-        <v>104441</v>
+        <v>144433</v>
       </c>
       <c r="C62">
-        <v>12318</v>
+        <v>18088</v>
       </c>
       <c r="D62">
-        <v>6162</v>
+        <v>8114</v>
       </c>
       <c r="E62">
-        <v>6156</v>
+        <v>5038</v>
       </c>
       <c r="F62">
-        <v>6177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9461</v>
+      </c>
+      <c r="W62">
+        <v>6000</v>
+      </c>
+      <c r="X62">
+        <v>9462</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6100</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W63">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6200</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W64">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6300</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W65">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6400</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W66">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6500</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W67">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6600</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W68">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6700</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W69">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6800</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W70">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6900</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W71">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7000</v>
       </c>
       <c r="B72">
-        <v>141620</v>
+        <v>196559</v>
       </c>
       <c r="C72">
-        <v>18239</v>
+        <v>24600</v>
       </c>
       <c r="D72">
-        <v>8108</v>
+        <v>9461</v>
       </c>
       <c r="E72">
-        <v>6020</v>
+        <v>5869</v>
       </c>
       <c r="F72">
-        <v>11936</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11030</v>
+      </c>
+      <c r="W72">
+        <v>7000</v>
+      </c>
+      <c r="X72">
+        <v>11030</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7100</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W73">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7200</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W74">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7300</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W75">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7400</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W76">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7500</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W77">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7600</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W78">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7700</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W79">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7800</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W80">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7900</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W81">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8000</v>
       </c>
       <c r="B82">
-        <v>188749</v>
+        <v>256704</v>
       </c>
       <c r="C82">
-        <v>20735</v>
+        <v>32116</v>
       </c>
       <c r="D82">
-        <v>7392</v>
+        <v>10805</v>
       </c>
       <c r="E82">
-        <v>1571</v>
+        <v>6701</v>
       </c>
       <c r="F82">
-        <v>8659</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12603</v>
+      </c>
+      <c r="W82">
+        <v>8000</v>
+      </c>
+      <c r="X82">
+        <v>12603</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8100</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W83">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8200</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W84">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8300</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W85">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8400</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W86">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8500</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W87">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8600</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W88">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8700</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W89">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8800</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W90">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8900</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W91">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9000</v>
       </c>
       <c r="B92">
-        <v>239587</v>
+        <v>324858</v>
       </c>
       <c r="C92">
-        <v>29373</v>
+        <v>40632</v>
       </c>
       <c r="D92">
-        <v>5827</v>
+        <v>12157</v>
       </c>
       <c r="E92">
-        <v>4568</v>
+        <v>7540</v>
       </c>
       <c r="F92">
-        <v>6904</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14176</v>
+      </c>
+      <c r="W92">
+        <v>9000</v>
+      </c>
+      <c r="X92">
+        <v>14176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9100</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W93">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9200</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W94">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9300</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W95">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9400</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W96">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9500</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W97">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9600</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W98">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9700</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W99">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9800</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W100">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>9900</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W101">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>10000</v>
       </c>
       <c r="B102">
-        <v>292655</v>
+        <v>401031</v>
       </c>
       <c r="C102">
-        <v>36878</v>
+        <v>50151</v>
       </c>
       <c r="D102">
-        <v>6802</v>
+        <v>13504</v>
       </c>
       <c r="E102">
-        <v>6129</v>
+        <v>8368</v>
       </c>
       <c r="F102">
-        <v>11617</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15749</v>
+      </c>
+      <c r="W102">
+        <v>10000</v>
+      </c>
+      <c r="X102">
+        <v>15749</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10100</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W103">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>10200</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W104">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>10300</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W105">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>10400</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W106">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>10500</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W107">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10600</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W108">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10700</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W109">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>10800</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W110">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10900</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W111">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>11000</v>
       </c>
       <c r="B112">
-        <v>356030</v>
+        <v>485216</v>
       </c>
       <c r="C112">
-        <v>43021</v>
+        <v>60670</v>
       </c>
       <c r="D112">
-        <v>11188</v>
+        <v>14848</v>
       </c>
       <c r="E112">
-        <v>6146</v>
+        <v>9208</v>
       </c>
       <c r="F112">
-        <v>12287</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17314</v>
+      </c>
+      <c r="W112">
+        <v>11000</v>
+      </c>
+      <c r="X112">
+        <v>17314</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>11100</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W113">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>11200</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W114">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>11300</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W115">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>11400</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W116">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>11500</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W117">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>11600</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W118">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>11700</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W119">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>11800</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W120">
+        <v>11800</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>11900</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="W121">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>12000</v>
       </c>
       <c r="B122">
-        <v>423917</v>
+        <v>577421</v>
       </c>
       <c r="C122">
-        <v>49188</v>
+        <v>72200</v>
       </c>
       <c r="D122">
-        <v>12114</v>
+        <v>16195</v>
       </c>
       <c r="E122">
-        <v>5298</v>
+        <v>10039</v>
       </c>
       <c r="F122">
-        <v>13296</v>
+        <v>18886</v>
+      </c>
+      <c r="W122">
+        <v>12000</v>
+      </c>
+      <c r="X122">
+        <v>18886</v>
       </c>
     </row>
   </sheetData>
@@ -24026,7 +24083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C44" sqref="C44:I49"/>
     </sheetView>
   </sheetViews>
@@ -24042,30 +24099,30 @@
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -24204,7 +24261,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>5000</v>
@@ -24230,27 +24287,27 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
       </c>
       <c r="L12">
         <v>3000</v>
@@ -24343,7 +24400,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>3000</v>
@@ -24438,7 +24495,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L19">
         <v>400</v>
@@ -24464,27 +24521,27 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>15</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>16</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -24644,30 +24701,30 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
         <v>14</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>15</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>16</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>17</v>
-      </c>
-      <c r="H28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -24806,7 +24863,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>1250</v>
@@ -24832,27 +24889,27 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
         <v>14</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>15</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>16</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>17</v>
-      </c>
-      <c r="H36" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" t="s">
-        <v>19</v>
       </c>
       <c r="M36">
         <v>300</v>
@@ -25014,27 +25071,27 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
         <v>14</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>15</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>16</v>
       </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
         <v>17</v>
-      </c>
-      <c r="H44" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
